--- a/teaching/aux_files/module_2_a.xlsx
+++ b/teaching/aux_files/module_2_a.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11102"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10110"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/mio101/Downloads/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/mio101/Documents/GitHub/miguelcfoliveira.github.io/teaching/aux_files/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{45BFFEA9-1F89-2740-9822-BF3E7D7A75AE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{67275C72-2276-3E4B-85C2-42BEF78E02DC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="7860" yWindow="1540" windowWidth="30120" windowHeight="17440" xr2:uid="{61CA6DA5-5B67-9C41-A564-8BA62B65478C}"/>
   </bookViews>
@@ -70,7 +70,7 @@
   <numFmts count="3">
     <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="164" formatCode="0.000%"/>
-    <numFmt numFmtId="166" formatCode="_(&quot;$&quot;* #,##0.000_);_(&quot;$&quot;* \(#,##0.000\);_(&quot;$&quot;* &quot;-&quot;???_);_(@_)"/>
+    <numFmt numFmtId="165" formatCode="_(&quot;$&quot;* #,##0.000_);_(&quot;$&quot;* \(#,##0.000\);_(&quot;$&quot;* &quot;-&quot;???_);_(@_)"/>
   </numFmts>
   <fonts count="2" x14ac:knownFonts="1">
     <font>
@@ -125,7 +125,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Currency" xfId="1" builtinId="4"/>
@@ -2925,7 +2925,7 @@
           <a:effectLst/>
         </c:spPr>
         <c:txPr>
-          <a:bodyPr rot="-2700000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:bodyPr rot="-2700000" spcFirstLastPara="1" vertOverflow="ellipsis" wrap="square" anchor="ctr" anchorCtr="1"/>
           <a:lstStyle/>
           <a:p>
             <a:pPr>
@@ -3981,7 +3981,7 @@
   <dimension ref="B2:C9"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="I28" sqref="I28"/>
+      <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -4044,7 +4044,7 @@
         <v>0</v>
       </c>
       <c r="C9" s="2">
-        <f>($C$5/($C$7/$C$4))*(1-1/(1+$C$7/2)^($C$6*$C$4))+($C$2)/(1+$C$7/$C$4)^($C$6*$C$4)</f>
+        <f>($C$5/($C$7/$C$4))*(1-1/(1+$C$7/$C$4)^($C$6*$C$4))+($C$2)/(1+$C$7/$C$4)^($C$6*$C$4)</f>
         <v>1000</v>
       </c>
     </row>
